--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43124,6 +43124,41 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>6200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43159,6 +43159,41 @@
         <v>6200</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>72300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43194,6 +43194,41 @@
         <v>72300</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>25200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43229,6 +43229,41 @@
         <v>25200</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43264,6 +43264,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>36000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43299,6 +43299,41 @@
         <v>36000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>32100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43334,6 +43334,41 @@
         <v>32100</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43369,6 +43369,41 @@
         <v>600</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>51600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43404,6 +43404,41 @@
         <v>51600</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>117700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43439,6 +43439,41 @@
         <v>117700</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>148800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43474,6 +43474,43 @@
         <v>148800</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43511,6 +43511,41 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>110000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43546,6 +43546,76 @@
         <v>110000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>253200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43616,6 +43616,76 @@
         <v>253200</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>155800</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43686,6 +43686,41 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>8700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43721,6 +43721,41 @@
         <v>8700</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>129300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43756,6 +43756,41 @@
         <v>129300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>61000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43791,6 +43791,41 @@
         <v>61000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>307800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43826,6 +43826,76 @@
         <v>307800</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>114400</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>52900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43896,6 +43896,41 @@
         <v>52900</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>272200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43931,6 +43931,41 @@
         <v>272200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>321500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2381"/>
+  <dimension ref="A1:I2382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83901,6 +83901,41 @@
         <v>321500</v>
       </c>
     </row>
+    <row r="2382">
+      <c r="A2382" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2382" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2382" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2382" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2382" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2382" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2382" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2382" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2382" t="n">
+        <v>240700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2382"/>
+  <dimension ref="A1:I2383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83936,6 +83936,41 @@
         <v>240700</v>
       </c>
     </row>
+    <row r="2383">
+      <c r="A2383" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2383" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2383" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2383" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2383" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2383" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2383" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2383" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2383" t="n">
+        <v>176200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2383"/>
+  <dimension ref="A1:I2384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83971,6 +83971,41 @@
         <v>176200</v>
       </c>
     </row>
+    <row r="2384">
+      <c r="A2384" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2384" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2384" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2384" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2384" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2384" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G2384" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H2384" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I2384" t="n">
+        <v>112000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2384"/>
+  <dimension ref="A1:I2385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84006,6 +84006,41 @@
         <v>112000</v>
       </c>
     </row>
+    <row r="2385">
+      <c r="A2385" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2385" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2385" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2385" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2385" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2385" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G2385" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2385" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2385" t="n">
+        <v>375900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2385"/>
+  <dimension ref="A1:I2386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84041,6 +84041,41 @@
         <v>375900</v>
       </c>
     </row>
+    <row r="2386">
+      <c r="A2386" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2386" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2386" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2386" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2386" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2386" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2386" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2386" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2386" t="n">
+        <v>57700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2386"/>
+  <dimension ref="A1:I2387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84076,6 +84076,41 @@
         <v>57700</v>
       </c>
     </row>
+    <row r="2387">
+      <c r="A2387" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2387" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2387" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2387" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2387" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2387" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2387" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2387" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I2387" t="n">
+        <v>188000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2387"/>
+  <dimension ref="A1:I2388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84111,6 +84111,41 @@
         <v>188000</v>
       </c>
     </row>
+    <row r="2388">
+      <c r="A2388" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2388" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2388" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2388" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2388" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2388" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G2388" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2388" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I2388" t="n">
+        <v>109600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2388"/>
+  <dimension ref="A1:I2389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84146,6 +84146,41 @@
         <v>109600</v>
       </c>
     </row>
+    <row r="2389">
+      <c r="A2389" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2389" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2389" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2389" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2389" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F2389" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2389" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H2389" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I2389" t="n">
+        <v>102500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2389"/>
+  <dimension ref="A1:I2390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84181,6 +84181,41 @@
         <v>102500</v>
       </c>
     </row>
+    <row r="2390">
+      <c r="A2390" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2390" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2390" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2390" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F2390" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G2390" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2390" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I2390" t="n">
+        <v>44000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2390"/>
+  <dimension ref="A1:I2391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84216,6 +84216,41 @@
         <v>44000</v>
       </c>
     </row>
+    <row r="2391">
+      <c r="A2391" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2391" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2391" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2391" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2391" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F2391" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G2391" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H2391" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I2391" t="n">
+        <v>139500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2391"/>
+  <dimension ref="A1:I2392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84251,6 +84251,41 @@
         <v>139500</v>
       </c>
     </row>
+    <row r="2392">
+      <c r="A2392" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2392" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2392" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2392" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2392" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F2392" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G2392" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2392" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I2392" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2392"/>
+  <dimension ref="A1:I2393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84286,6 +84286,41 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="2393">
+      <c r="A2393" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2393" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2393" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2393" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2393" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F2393" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G2393" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2393" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I2393" t="n">
+        <v>5600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2393"/>
+  <dimension ref="A1:I2394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84321,6 +84321,41 @@
         <v>5600</v>
       </c>
     </row>
+    <row r="2394">
+      <c r="A2394" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2394" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2394" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2394" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2394" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F2394" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2394" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H2394" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I2394" t="n">
+        <v>53000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2394"/>
+  <dimension ref="A1:I2395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84356,6 +84356,41 @@
         <v>53000</v>
       </c>
     </row>
+    <row r="2395">
+      <c r="A2395" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2395" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2395" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2395" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2395" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F2395" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G2395" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2395" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I2395" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2395"/>
+  <dimension ref="A1:I2396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84391,6 +84391,41 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="2396">
+      <c r="A2396" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2396" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2396" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2396" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2396" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F2396" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2396" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H2396" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2396" t="n">
+        <v>14900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2953"/>
+  <dimension ref="A1:I2954"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103921,6 +103921,41 @@
         <v>14900</v>
       </c>
     </row>
+    <row r="2954">
+      <c r="A2954" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2954" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2954" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2954" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2954" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2954" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2954" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2954" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I2954" t="n">
+        <v>79700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2954"/>
+  <dimension ref="A1:I2955"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103956,6 +103956,41 @@
         <v>79700</v>
       </c>
     </row>
+    <row r="2955">
+      <c r="A2955" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2955" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2955" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2955" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2955" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2955" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2955" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2955" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2955" t="n">
+        <v>38800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2955"/>
+  <dimension ref="A1:I2956"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103991,6 +103991,41 @@
         <v>38800</v>
       </c>
     </row>
+    <row r="2956">
+      <c r="A2956" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2956" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2956" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2956" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2956" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F2956" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G2956" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H2956" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I2956" t="n">
+        <v>80500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2956"/>
+  <dimension ref="A1:I2957"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104026,6 +104026,41 @@
         <v>80500</v>
       </c>
     </row>
+    <row r="2957">
+      <c r="A2957" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2957" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2957" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2957" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2957" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F2957" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2957" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H2957" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2957" t="n">
+        <v>73900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2957"/>
+  <dimension ref="A1:I2958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104061,6 +104061,41 @@
         <v>73900</v>
       </c>
     </row>
+    <row r="2958">
+      <c r="A2958" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2958" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2958" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2958" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2958" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2958" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2958" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2958" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2958" t="n">
+        <v>41000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2958"/>
+  <dimension ref="A1:I2959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104096,6 +104096,41 @@
         <v>41000</v>
       </c>
     </row>
+    <row r="2959">
+      <c r="A2959" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2959" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2959" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2959" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2959" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F2959" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2959" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2959" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2959" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2959"/>
+  <dimension ref="A1:I2960"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104131,6 +104131,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2960">
+      <c r="A2960" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2960" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2960" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2960" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2960" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F2960" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G2960" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2960" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2960" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2960"/>
+  <dimension ref="A1:I2961"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104166,6 +104166,41 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="2961">
+      <c r="A2961" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2961" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2961" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2961" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2961" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2961" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G2961" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2961" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I2961" t="n">
+        <v>22000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2961"/>
+  <dimension ref="A1:I2962"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104201,6 +104201,41 @@
         <v>22000</v>
       </c>
     </row>
+    <row r="2962">
+      <c r="A2962" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2962" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2962" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2962" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2962" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F2962" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G2962" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2962" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2962" t="n">
+        <v>124800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2962"/>
+  <dimension ref="A1:I2963"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104236,6 +104236,41 @@
         <v>124800</v>
       </c>
     </row>
+    <row r="2963">
+      <c r="A2963" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2963" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2963" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2963" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2963" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2963" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2963" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2963" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2963" t="n">
+        <v>24000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2963"/>
+  <dimension ref="A1:I2965"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104271,6 +104271,76 @@
         <v>24000</v>
       </c>
     </row>
+    <row r="2964">
+      <c r="A2964" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2964" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2964" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2964" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2964" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F2964" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G2964" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2964" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2964" t="n">
+        <v>945200</v>
+      </c>
+    </row>
+    <row r="2965">
+      <c r="A2965" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2965" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2965" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2965" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2965" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2965" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2965" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2965" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2965" t="n">
+        <v>180800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2965"/>
+  <dimension ref="A1:I2966"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104341,6 +104341,41 @@
         <v>180800</v>
       </c>
     </row>
+    <row r="2966">
+      <c r="A2966" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2966" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2966" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2966" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2966" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2966" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2966" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2966" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2966" t="n">
+        <v>122000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2966"/>
+  <dimension ref="A1:I2969"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104376,6 +104376,111 @@
         <v>122000</v>
       </c>
     </row>
+    <row r="2967">
+      <c r="A2967" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2967" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2967" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2967" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2967" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2967" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2967" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2967" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2967" t="n">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="2968">
+      <c r="A2968" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2968" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2968" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2968" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2968" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2968" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G2968" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2968" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2968" t="n">
+        <v>110900</v>
+      </c>
+    </row>
+    <row r="2969">
+      <c r="A2969" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2969" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2969" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2969" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2969" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2969" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2969" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2969" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2969" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7214.xlsx
+++ b/data/7214.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2969"/>
+  <dimension ref="A1:I2970"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104481,6 +104481,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2970">
+      <c r="A2970" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2970" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2970" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="D2970" t="inlineStr">
+        <is>
+          <t>ARANK</t>
+        </is>
+      </c>
+      <c r="E2970" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2970" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2970" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2970" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2970" t="n">
+        <v>33400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
